--- a/Country Data Update Nov 2019.xlsx
+++ b/Country Data Update Nov 2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb305167\OneDrive - WBG\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb305167\Documents\python\Tax-Revenue-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26812B72-26FA-4E6A-A187-957774E2FC5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AE6090-EBE4-4C31-8B97-D54AC0F7F9FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F1ED270-6AAF-4B98-8A51-BA220EAFA324}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F1ED270-6AAF-4B98-8A51-BA220EAFA324}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>Total_Revenue_incl_SC</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>IND</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>OMN</t>
   </si>
 </sst>
 </file>
@@ -112,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,16 +159,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,12 +222,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -236,6 +277,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,18 +597,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9F3E61-FD83-4E3A-B0AF-1015CF4D0DC0}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:DT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" style="9"/>
+    <col min="3" max="3" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -624,7 +673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -672,7 +721,7 @@
         <v>7.1257544769791036E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -720,7 +769,7 @@
         <v>1.0415304207987145E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -768,7 +817,7 @@
         <v>1.0398545830187921E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -816,7 +865,7 @@
         <v>1.3960390627846818E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -864,7 +913,7 @@
         <v>1.2807607648920064E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -912,7 +961,7 @@
         <v>1.2078597832216036E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -960,7 +1009,7 @@
         <v>9.367486062566795E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1065,7 @@
         <v>3.36259819339575E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1121,7 @@
         <v>2.4155598610516868E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
@@ -1128,7 +1177,7 @@
         <v>1.8891561852607489E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +1233,7 @@
         <v>1.584745539603014E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1289,7 @@
         <v>1.4283891221783399E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1345,7 @@
         <v>1.3175565063209918E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1401,7 @@
         <v>1.3027152238790649E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1408,7 +1457,7 @@
         <v>5.2151777854128113E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1464,7 +1513,7 @@
         <v>4.579376537412462E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
@@ -1519,6 +1568,962 @@
       <c r="T18" s="11">
         <v>2.9733964620230736E-4</v>
       </c>
+    </row>
+    <row r="19" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D19" s="10">
+        <v>9.2823024870059431E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1.9000006255781604E-2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J19" s="10">
+        <v>8.5133073784947524E-3</v>
+      </c>
+      <c r="K19" s="10">
+        <v>9.3666471007114293E-3</v>
+      </c>
+      <c r="L19" s="10">
+        <v>5.248705984919573E-2</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="O19" s="10">
+        <v>3.7656264765973871E-4</v>
+      </c>
+      <c r="P19" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <v>6.2557816066710592E-9</v>
+      </c>
+      <c r="T19" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D20" s="10">
+        <v>9.4477708583328268E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>7.293779608350337E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1.0109212848611625E-2</v>
+      </c>
+      <c r="K20" s="10">
+        <v>8.8414242591200488E-3</v>
+      </c>
+      <c r="L20" s="10">
+        <v>5.39871589757717E-2</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="O20" s="10">
+        <v>4.0342401632340513E-4</v>
+      </c>
+      <c r="P20" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D21" s="10">
+        <v>9.9714078716124324E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>8.0717309510956708E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H21" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J21" s="10">
+        <v>9.5215196912074498E-3</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1.2756890806440484E-2</v>
+      </c>
+      <c r="L21" s="10">
+        <v>5.8438899013308773E-2</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O21" s="10">
+        <v>5.1397440528616481E-4</v>
+      </c>
+      <c r="P21" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10">
+        <v>0</v>
+      </c>
+      <c r="T21" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.10753352959547993</v>
+      </c>
+      <c r="E22" s="10">
+        <v>8.4491697010994946E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="J22" s="10">
+        <v>8.4187854460793712E-3</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1.6565838319740494E-2</v>
+      </c>
+      <c r="L22" s="10">
+        <v>5.9507073245175075E-2</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O22" s="10">
+        <v>5.8946963082841784E-4</v>
+      </c>
+      <c r="P22" s="10">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.11066119153105468</v>
+      </c>
+      <c r="E23" s="10">
+        <v>8.4521789842010392E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="J23" s="10">
+        <v>8.1706047390275212E-3</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1.8890680931972877E-2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>5.746050417101E-2</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O23" s="10">
+        <v>5.9075804995646977E-4</v>
+      </c>
+      <c r="P23" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.10623372822844573</v>
+      </c>
+      <c r="E24" s="10">
+        <v>8.1155663242706733E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="I24" s="10">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="J24" s="10">
+        <v>7.5838983959512028E-3</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1.8874761905727785E-2</v>
+      </c>
+      <c r="L24" s="10">
+        <v>5.4697002941027736E-2</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O24" s="10">
+        <v>5.7050300743849414E-4</v>
+      </c>
+      <c r="P24" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>0</v>
+      </c>
+      <c r="R24" s="10">
+        <v>0</v>
+      </c>
+      <c r="S24" s="10">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D25" s="10">
+        <v>9.3353466930734028E-2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>7.9305269916944365E-2</v>
+      </c>
+      <c r="F25" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="H25" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="J25" s="10">
+        <v>8.0167736541706669E-3</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1.7053633706881531E-2</v>
+      </c>
+      <c r="L25" s="10">
+        <v>5.4234862555892181E-2</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O25" s="10">
+        <v>6.1496010978044527E-4</v>
+      </c>
+      <c r="P25" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D26" s="10">
+        <v>9.6577758124184343E-2</v>
+      </c>
+      <c r="E26" s="10">
+        <v>8.1908387890030951E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <v>7.958626789046238E-3</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1.6350831023436912E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <v>5.7598930077547808E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O26" s="10">
+        <v>8.4126967007129225E-4</v>
+      </c>
+      <c r="P26" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D27" s="10">
+        <v>9.5544656597644828E-2</v>
+      </c>
+      <c r="E27" s="10">
+        <v>8.4139870941363312E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="I27" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <v>5.9342743622311359E-2</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O27" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="P27" s="10">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="10">
+        <v>8.0367032430238072E-2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7.0367032430238063E-2</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="I28" s="10">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O28" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="P28" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10">
+        <v>0</v>
+      </c>
+      <c r="T28" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2014</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.46299999999999997</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3.4737281067556303E-2</v>
+      </c>
+      <c r="F29" s="16">
+        <v>3.4737281067556303E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1.44E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <v>1.3337281067556305E-2</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="DH29" s="14"/>
+      <c r="DI29" s="14"/>
+      <c r="DJ29" s="14"/>
+      <c r="DK29" s="14"/>
+      <c r="DL29" s="14"/>
+      <c r="DM29" s="14"/>
+      <c r="DO29" s="14"/>
+      <c r="DP29" s="14"/>
+      <c r="DQ29" s="14"/>
+      <c r="DR29" s="14"/>
+      <c r="DS29" s="14"/>
+      <c r="DT29" s="14"/>
+    </row>
+    <row r="30" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>2015</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E30" s="16">
+        <v>4.1475002169786758E-2</v>
+      </c>
+      <c r="F30" s="16">
+        <v>4.1475002169786758E-2</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0</v>
+      </c>
+      <c r="T30" s="17">
+        <v>1.5575002169786755E-2</v>
+      </c>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="DH30" s="14"/>
+      <c r="DI30" s="14"/>
+      <c r="DJ30" s="14"/>
+      <c r="DK30" s="14"/>
+      <c r="DL30" s="14"/>
+      <c r="DM30" s="14"/>
+      <c r="DO30" s="14"/>
+      <c r="DP30" s="14"/>
+      <c r="DQ30" s="14"/>
+      <c r="DR30" s="14"/>
+      <c r="DS30" s="14"/>
+      <c r="DT30" s="14"/>
+    </row>
+    <row r="31" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>2016</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E31" s="16">
+        <v>4.5001873434696013E-2</v>
+      </c>
+      <c r="F31" s="16">
+        <v>4.5001873434696013E-2</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0</v>
+      </c>
+      <c r="P31" s="16">
+        <v>1.1899999999999999E-2</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>0</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0</v>
+      </c>
+      <c r="T31" s="17">
+        <v>1.7801873434696015E-2</v>
+      </c>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="DH31" s="14"/>
+      <c r="DI31" s="14"/>
+      <c r="DJ31" s="14"/>
+      <c r="DK31" s="14"/>
+      <c r="DL31" s="14"/>
+      <c r="DM31" s="14"/>
+      <c r="DO31" s="14"/>
+      <c r="DP31" s="14"/>
+      <c r="DQ31" s="14"/>
+      <c r="DR31" s="14"/>
+      <c r="DS31" s="14"/>
+      <c r="DT31" s="14"/>
+    </row>
+    <row r="32" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>2017</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.317</v>
+      </c>
+      <c r="E32" s="16">
+        <v>4.1959994709072468E-2</v>
+      </c>
+      <c r="F32" s="16">
+        <v>4.1959994709072468E-2</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+      <c r="T32" s="17">
+        <v>1.8859994709072469E-2</v>
+      </c>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="DH32" s="14"/>
+      <c r="DI32" s="14"/>
+      <c r="DJ32" s="14"/>
+      <c r="DK32" s="14"/>
+      <c r="DL32" s="14"/>
+      <c r="DM32" s="14"/>
+      <c r="DO32" s="14"/>
+      <c r="DP32" s="14"/>
+      <c r="DQ32" s="14"/>
+      <c r="DR32" s="14"/>
+      <c r="DS32" s="14"/>
+      <c r="DT32" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
